--- a/resources/excelfiles/vwousernameandpasswordcontrol.xlsx
+++ b/resources/excelfiles/vwousernameandpasswordcontrol.xlsx
@@ -29,7 +29,7 @@
     <t>fname</t>
   </si>
   <si>
-    <t>loginWithCredentialsChrome</t>
+    <t>loginCredentialsChrome</t>
   </si>
   <si>
     <t>yes</t>
@@ -50,7 +50,7 @@
     <t>Tes@1234</t>
   </si>
   <si>
-    <t>Test@123</t>
+    <t>akash@wuuvo.com</t>
   </si>
   <si>
     <t>no</t>
@@ -62,7 +62,7 @@
     <t>Test@1235</t>
   </si>
   <si>
-    <t>loginWithCredentialsEdge</t>
+    <t>loginCredentialsEdge</t>
   </si>
 </sst>
 </file>
@@ -285,10 +285,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>9</v>
@@ -370,10 +370,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>9</v>

--- a/resources/excelfiles/vwousernameandpasswordcontrol.xlsx
+++ b/resources/excelfiles/vwousernameandpasswordcontrol.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>TestName</t>
   </si>
@@ -62,7 +62,16 @@
     <t>Test@1235</t>
   </si>
   <si>
+    <t>checkUrlDashboardPageChrome</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>loginCredentialsEdge</t>
+  </si>
+  <si>
+    <t>checkUrlDashboardPageEdge</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -312,51 +321,51 @@
       </c>
     </row>
     <row r="6" ht="50.0" customHeight="true">
-      <c r="A6" t="s" s="1">
+      <c r="A6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="50.0" customHeight="true">
+      <c r="A7" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B6" t="s" s="1">
+      <c r="B7" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="1">
+      <c r="C7" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D6" t="s" s="1">
+      <c r="D7" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E6" t="s" s="1">
+      <c r="E7" t="s" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="50.0" customHeight="true">
-      <c r="A7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="8" ht="50.0" customHeight="true">
       <c r="A8" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>6</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>9</v>
@@ -364,16 +373,16 @@
     </row>
     <row r="9" ht="50.0" customHeight="true">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>6</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>9</v>
@@ -381,18 +390,52 @@
     </row>
     <row r="10" ht="50.0" customHeight="true">
       <c r="A10" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="50.0" customHeight="true">
+      <c r="A11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C11" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D11" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E11" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="50.0" customHeight="true">
+      <c r="A12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>9</v>
       </c>
     </row>
